--- a/prehled.xlsx
+++ b/prehled.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="prehled" sheetId="1" r:id="rId1"/>
+    <sheet name="List1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -581,9 +582,6 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>dopisDoručen</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -591,6 +589,9 @@
   </si>
   <si>
     <t>107-1305550227/0100</t>
+  </si>
+  <si>
+    <t>dopisDorucen</t>
   </si>
 </sst>
 </file>
@@ -990,11 +991,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,7 +1021,7 @@
         <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1133,13 +1134,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,7 +1174,7 @@
         <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1184,13 +1185,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1208,7 @@
         <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1224,7 +1225,7 @@
         <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1241,7 +1242,7 @@
         <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1309,7 +1310,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1411,7 +1412,7 @@
         <v>119</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1530,7 +1531,7 @@
         <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1938,7 +1939,7 @@
         <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2040,7 +2041,7 @@
         <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2057,7 +2058,7 @@
         <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2074,7 +2075,7 @@
         <v>119</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2091,7 +2092,7 @@
         <v>119</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2159,31 +2160,49 @@
         <v>119</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/prehled.xlsx
+++ b/prehled.xlsx
@@ -15,12 +15,12 @@
     <sheet name="prehled" sheetId="1" r:id="rId1"/>
     <sheet name="List1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="127">
   <si>
     <t>email</t>
   </si>
@@ -549,9 +549,6 @@
     <t>jaresovaklarka@gmail.com</t>
   </si>
   <si>
-    <t>Neví, že by hrál</t>
-  </si>
-  <si>
     <t>Nedošel e-mail</t>
   </si>
   <si>
@@ -592,6 +589,18 @@
   </si>
   <si>
     <t>dopisDorucen</t>
+  </si>
+  <si>
+    <t>částka</t>
+  </si>
+  <si>
+    <t>1698059016/3030</t>
+  </si>
+  <si>
+    <t>1660704016/3030</t>
+  </si>
+  <si>
+    <t>zaslané peníze</t>
   </si>
 </sst>
 </file>
@@ -675,9 +684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -685,6 +691,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -991,11 +1000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,11 +1012,12 @@
     <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,16 +1025,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1032,16 +1045,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D2">
+        <v>370</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1049,16 +1065,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1066,16 +1085,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D4">
+        <v>370</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1083,16 +1105,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D5">
+        <v>370</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1100,16 +1125,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D6">
+        <v>370</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1117,33 +1145,39 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7">
+        <v>370</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="4">
+        <v>370</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1151,118 +1185,139 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9">
+        <v>370</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="4">
+        <v>370</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="4">
+        <v>370</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="4">
+        <v>370</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="F12" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="4">
+        <v>370</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="6">
+        <v>370</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="4">
+        <v>370</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1270,50 +1325,59 @@
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16">
+        <v>370</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="4">
+        <v>370</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F17" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18">
+        <v>370</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
         <v>119</v>
       </c>
-      <c r="E18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1321,16 +1385,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D19">
+        <v>370</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1338,16 +1405,19 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D20">
+        <v>370</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1355,84 +1425,99 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D21">
+        <v>370</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>119</v>
+      <c r="C22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22">
+        <v>370</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>119</v>
+      <c r="C23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23">
+        <v>370</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24">
+        <v>370</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>119</v>
+      <c r="C25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25">
+        <v>370</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1440,16 +1525,19 @@
         <v>28</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1457,16 +1545,19 @@
         <v>30</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1474,16 +1565,19 @@
         <v>32</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D28">
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1491,16 +1585,19 @@
         <v>32</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D29">
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1508,33 +1605,39 @@
         <v>35</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" t="s">
         <v>119</v>
       </c>
-      <c r="E31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1542,16 +1645,19 @@
         <v>39</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1559,16 +1665,19 @@
         <v>39</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1576,16 +1685,19 @@
         <v>42</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1593,16 +1705,19 @@
         <v>44</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1610,16 +1725,19 @@
         <v>44</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1627,16 +1745,19 @@
         <v>47</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1644,16 +1765,19 @@
         <v>49</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1661,16 +1785,19 @@
         <v>51</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1678,16 +1805,19 @@
         <v>53</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -1695,16 +1825,19 @@
         <v>55</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1712,16 +1845,19 @@
         <v>57</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1729,16 +1865,19 @@
         <v>59</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -1746,16 +1885,19 @@
         <v>61</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -1763,16 +1905,19 @@
         <v>63</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -1780,16 +1925,19 @@
         <v>65</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -1797,16 +1945,19 @@
         <v>67</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -1814,16 +1965,19 @@
         <v>69</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -1831,16 +1985,19 @@
         <v>71</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -1848,16 +2005,19 @@
         <v>73</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -1865,16 +2025,19 @@
         <v>75</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -1882,16 +2045,19 @@
         <v>77</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -1899,16 +2065,19 @@
         <v>79</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -1916,33 +2085,39 @@
         <v>81</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" t="s">
         <v>119</v>
       </c>
-      <c r="E55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -1950,33 +2125,39 @@
         <v>85</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>119</v>
+      <c r="C57" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -1984,16 +2165,19 @@
         <v>89</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -2001,16 +2185,19 @@
         <v>91</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -2018,84 +2205,99 @@
         <v>93</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
       </c>
-      <c r="E61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
       </c>
-      <c r="E62" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
       </c>
-      <c r="E63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
         <v>119</v>
       </c>
-      <c r="E64" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -2103,16 +2305,19 @@
         <v>103</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -2120,16 +2325,19 @@
         <v>105</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -2137,30 +2345,36 @@
         <v>107</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C68" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" t="s">
         <v>119</v>
-      </c>
-      <c r="E68" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2388,7 @@
   <dimension ref="A3:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2184,22 +2398,22 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
